--- a/docs/DVM_PKG_error_handling_cases.xlsx
+++ b/docs/DVM_PKG_error_handling_cases.xlsx
@@ -18,8 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Implement this check in the DVM package
+also handle the case where there are multiple primary keys</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>Error Code</t>
   </si>
@@ -130,13 +165,25 @@
   </si>
   <si>
     <t>The existing data validation issues could not be retrieved successfully</t>
+  </si>
+  <si>
+    <t>Feasible for QC query?</t>
+  </si>
+  <si>
+    <t>QC query for single numeric primary key</t>
+  </si>
+  <si>
+    <t>QC query for no data streams defined in DB</t>
+  </si>
+  <si>
+    <t>QC query for no data validation rules defined in DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +199,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +232,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +268,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +565,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -499,8 +575,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -510,8 +589,11 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -521,8 +603,11 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -532,8 +617,11 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -544,8 +632,11 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -556,8 +647,11 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -568,8 +662,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -580,8 +677,11 @@
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -592,8 +692,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -604,8 +707,11 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -616,8 +722,11 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -628,8 +737,11 @@
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -640,8 +752,11 @@
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
@@ -652,8 +767,11 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -664,8 +782,11 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -676,8 +797,11 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -688,8 +812,11 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -700,8 +827,11 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -712,8 +842,11 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -724,8 +857,11 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -736,8 +872,11 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -748,8 +887,11 @@
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
@@ -760,8 +902,11 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -772,8 +917,11 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -784,8 +932,11 @@
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -796,8 +947,11 @@
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -808,8 +962,11 @@
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -820,8 +977,11 @@
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -832,8 +992,11 @@
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
@@ -844,8 +1007,11 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -856,8 +1022,11 @@
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -868,8 +1037,11 @@
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -879,6 +1051,33 @@
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -887,5 +1086,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/DVM_PKG_error_handling_cases.xlsx
+++ b/docs/DVM_PKG_error_handling_cases.xlsx
@@ -44,8 +44,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Implement this check in the DVM package
-also handle the case where there are multiple primary keys</t>
+_ Implement this check in the DVM package
+X also handle the case where there are multiple primary keys</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Error Code</t>
   </si>
@@ -125,9 +125,6 @@
     <t>The parent issue record for the parent table could not be queried successfully</t>
   </si>
   <si>
-    <t>Error Desc</t>
-  </si>
-  <si>
     <t>The PTA Rule Set (DVM_PTA_RULE_SETS) record could not be updated successfully</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>QC query for no data validation rules defined in DB</t>
+  </si>
+  <si>
+    <t>Error Description</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -268,10 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +558,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -576,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -617,7 +608,7 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -632,7 +623,7 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -671,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ref="B8:B33" si="0">B7-1</f>
+        <f t="shared" ref="B8:B34" si="0">B7-1</f>
         <v>-20206</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -713,7 +704,7 @@
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -728,7 +719,7 @@
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -737,13 +728,13 @@
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -752,7 +743,7 @@
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -773,7 +764,7 @@
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -803,7 +794,7 @@
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -818,7 +809,7 @@
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
@@ -833,7 +824,7 @@
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
@@ -848,7 +839,7 @@
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -887,13 +878,13 @@
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -902,13 +893,13 @@
       <c r="C23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
@@ -923,7 +914,7 @@
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
@@ -947,7 +938,7 @@
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -962,7 +953,7 @@
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1028,7 +1019,7 @@
     </row>
     <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
@@ -1043,7 +1034,7 @@
     </row>
     <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="0"/>
@@ -1056,27 +1047,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>-20232</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>6</v>
       </c>
     </row>
